--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.747591372647683</v>
+        <v>1.516248937663556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.834695583582491</v>
+        <v>1.514319819128396</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>1.96900122769168</v>
+        <v>1.602279001294704</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1.767835936772166</v>
+        <v>2.007652128026982</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.6540062440080208</v>
+        <v>1.768040115052738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.074400434091016</v>
+        <v>1.022680528298392</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.266814459660814</v>
+        <v>1.510468690286459</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.9212998022035679</v>
+        <v>0.9070039918702477</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.148586223271275</v>
+        <v>1.042579621507111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.141837882844188</v>
+        <v>1.022042907336096</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.138072517022626</v>
+        <v>1.083482333436536</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.335361538769475</v>
+        <v>1.34489417553354</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.13791261307421</v>
+        <v>1.095916825800991</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.202048372526998</v>
+        <v>1.277042522796856</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.239356233827293</v>
+        <v>1.293136192195643</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.677488680362305</v>
+        <v>2.615369162917314</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.112732612705837</v>
+        <v>1.825134644920934</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.466954516646402</v>
+        <v>2.618053282882693</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.304525109075838</v>
+        <v>2.406099663413808</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.401189216021326</v>
+        <v>1.431088640641853</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.888152810688548</v>
+        <v>2.21629047761287</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.217570159472659</v>
+        <v>2.136062314641141</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.055817427361806</v>
+        <v>2.031764787322499</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.408621835913149</v>
+        <v>2.166968775134936</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.797576752784936</v>
+        <v>1.984987808509886</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.435392224674993</v>
+        <v>2.459440348120401</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.3173162112820371</v>
+        <v>2.526389380645511</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.7452509897571069</v>
+        <v>0.8171929556848756</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.028725335207503</v>
+        <v>1.509741350988136</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.782207885866093</v>
+        <v>0.8766015904249524</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.321849008702292</v>
+        <v>2.477445663648559</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.533774754225425</v>
+        <v>1.554086551645839</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.069697780284606</v>
+        <v>0.9888012784191602</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6014263374495288</v>
+        <v>0.5837948599211717</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.686249836453868</v>
+        <v>1.328924132093245</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>1.392321641630434</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.516248937663556</v>
+        <v>1.710071460977503</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.514319819128396</v>
+        <v>1.004409005705997</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>1.602279001294704</v>
+        <v>1.642433761320072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>2.007652128026982</v>
+        <v>2.418114148635109</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.768040115052738</v>
+        <v>2.828066716168021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.022680528298392</v>
+        <v>1.89159218653383</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.510468690286459</v>
+        <v>2.544631191216329</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.9070039918702477</v>
+        <v>1.554977796875501</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.042579621507111</v>
+        <v>1.312870290004287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.022042907336096</v>
+        <v>0.6180254938795482</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.083482333436536</v>
+        <v>0.7749619016293785</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.34489417553354</v>
+        <v>0.481899667566732</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.095916825800991</v>
+        <v>0.7487574275252262</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.277042522796856</v>
+        <v>1.905862317202089</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.293136192195643</v>
+        <v>1.389591155234515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.615369162917314</v>
+        <v>2.671046044496239</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.825134644920934</v>
+        <v>2.125743999456575</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.618053282882693</v>
+        <v>1.917627847674064</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.406099663413808</v>
+        <v>2.694711744616662</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.431088640641853</v>
+        <v>1.119562422009102</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.21629047761287</v>
+        <v>1.831617848540201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.136062314641141</v>
+        <v>1.344920716048192</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.031764787322499</v>
+        <v>1.037735724446631</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.166968775134936</v>
+        <v>2.195375580740766</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.984987808509886</v>
+        <v>1.872521508785896</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.459440348120401</v>
+        <v>2.542856270410665</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.526389380645511</v>
+        <v>2.961494745505977</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.8171929556848756</v>
+        <v>0.3979826440748235</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.509741350988136</v>
+        <v>2.008592810942544</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8766015904249524</v>
+        <v>-2.604000402888396</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.477445663648559</v>
+        <v>-0.08252516517808228</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.554086551645839</v>
+        <v>1.122551915563408</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.9888012784191602</v>
+        <v>0.254631175783615</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5837948599211717</v>
+        <v>2.273132718878146</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.328924132093245</v>
+        <v>1.620205313802381</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.542856270410665</v>
+        <v>2.491319804758563</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.961494745505977</v>
+        <v>2.781067979046448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.3979826440748235</v>
+        <v>0.3834541475570052</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.008592810942544</v>
+        <v>1.87204206895466</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.604000402888396</v>
+        <v>-4.149799191324089</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.08252516517808228</v>
+        <v>-2.475922651815654</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.122551915563408</v>
+        <v>1.058768853581427</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.254631175783615</v>
+        <v>0.1776362760785632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.273132718878146</v>
+        <v>2.221594549876471</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.620205313802381</v>
+        <v>1.476229480348801</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>1.392321641630434</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>2.828066716168021</v>
+        <v>2.828066716168043</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.89159218653383</v>
+        <v>1.891592186533786</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.544631191216329</v>
+        <v>2.544631191216373</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,7 +494,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.312870290004287</v>
+        <v>1.312870290004309</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.6180254938795482</v>
+        <v>0.618025493879526</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.7749619016293785</v>
+        <v>0.7749619016294229</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.7487574275252262</v>
+        <v>0.7487574275251818</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.905862317202089</v>
+        <v>1.905862317202112</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.917627847674064</v>
+        <v>1.917627847674042</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.694711744616662</v>
+        <v>2.69471174461664</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.119562422009102</v>
+        <v>1.119562422009124</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.344920716048192</v>
+        <v>1.344920716048215</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.037735724446631</v>
+        <v>1.037735724446587</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +624,7 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.195375580740766</v>
+        <v>2.195375580740744</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.491319804758563</v>
+        <v>2.491319804758541</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.781067979046448</v>
+        <v>2.78106797904647</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +664,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.87204206895466</v>
+        <v>1.872042068954638</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-4.149799191324089</v>
+        <v>-4.149799191324066</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-2.475922651815654</v>
+        <v>-2.475922651815632</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.221594549876471</v>
+        <v>2.221594549876427</v>
       </c>
       <c r="D19">
         <v>2026</v>
